--- a/Test - Copy.xlsx
+++ b/Test - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\newfolder\djangoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B22645-A11A-4834-98E4-F4E52F46C1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23B1053-EBC7-4738-A9D1-299C1F95B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="רשימת מיזמים סקיילרטו" sheetId="1" r:id="rId1"/>
@@ -1272,13 +1272,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" style="2" customWidth="1"/>
